--- a/plan/Kosztorys.Banki.xlsx
+++ b/plan/Kosztorys.Banki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="186">
   <si>
     <t>Roboty ziemne</t>
   </si>
@@ -511,6 +511,69 @@
   </si>
   <si>
     <t>ZESTAWIENIE POWIERZCHNI</t>
+  </si>
+  <si>
+    <t>Uzbrojenie</t>
+  </si>
+  <si>
+    <t>Mury piwnic schody</t>
+  </si>
+  <si>
+    <t>Strop nad piwnica</t>
+  </si>
+  <si>
+    <t>Sciany zewn</t>
+  </si>
+  <si>
+    <t>Sciany wew</t>
+  </si>
+  <si>
+    <t>Schody, stropu, podesty</t>
+  </si>
+  <si>
+    <t>Roboty malarskie, glazura</t>
+  </si>
+  <si>
+    <t>Tynki, elewacja</t>
+  </si>
+  <si>
+    <t>Ogordzenie</t>
+  </si>
+  <si>
+    <t>Zasosp terenu</t>
+  </si>
+  <si>
+    <t>Istalacja won-kan</t>
+  </si>
+  <si>
+    <t>Instalacja CO, kominek</t>
+  </si>
+  <si>
+    <t>Przygotowanie terenu (wykopy pod fundamenty)</t>
+  </si>
+  <si>
+    <t>Izolacja dachu i scian</t>
+  </si>
+  <si>
+    <t>Wykończenie wew inne</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>INWESTOR</t>
+  </si>
+  <si>
+    <t>Izolacja pozioma, pionowa</t>
+  </si>
+  <si>
+    <t>Kostrukcja dachu</t>
+  </si>
+  <si>
+    <t>Stolarka okienna drzwiowa</t>
+  </si>
+  <si>
+    <t>Wykonczeniowe zewn inne(parapety, rynny, balustrady</t>
   </si>
 </sst>
 </file>
@@ -536,7 +599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -733,6 +802,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1027,16 +1099,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AC108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="D43:H49"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.140625" style="38" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -3696,7 +3769,7 @@
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="1:8">
       <c r="B65" s="41" t="s">
         <v>156</v>
       </c>
@@ -3709,7 +3782,7 @@
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="1:8">
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
       <c r="D66" s="41"/>
@@ -3718,7 +3791,7 @@
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="1:8">
       <c r="B67" s="41"/>
       <c r="C67" s="41">
         <f>C61+C63+C64</f>
@@ -3731,6 +3804,418 @@
       <c r="H67" s="41">
         <f>C67+F61</f>
         <v>139.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="41">
+        <v>5000</v>
+      </c>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="41">
+        <v>2000</v>
+      </c>
+      <c r="C75" s="41">
+        <v>8000</v>
+      </c>
+      <c r="D75" s="41"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="41">
+        <v>25000</v>
+      </c>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="41">
+        <v>0</v>
+      </c>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="41">
+        <v>0</v>
+      </c>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="41">
+        <v>8000</v>
+      </c>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="43">
+        <f>SUM(B74:B79)</f>
+        <v>40000</v>
+      </c>
+      <c r="C80" s="43">
+        <f>SUM(C74:C79)</f>
+        <v>8000</v>
+      </c>
+      <c r="D80" s="44">
+        <f>B80+C80</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="41">
+        <v>35000</v>
+      </c>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="41">
+        <v>9000</v>
+      </c>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="41">
+        <v>37000</v>
+      </c>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="41">
+        <v>15000</v>
+      </c>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="41">
+        <v>32000</v>
+      </c>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="41">
+        <v>28000</v>
+      </c>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="41">
+        <v>29000</v>
+      </c>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="43">
+        <f>SUM(B81:B87)</f>
+        <v>185000</v>
+      </c>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43">
+        <f t="shared" ref="D81:D108" si="8">B88+C88</f>
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="41">
+        <v>19000</v>
+      </c>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="41">
+        <v>23000</v>
+      </c>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="41">
+        <v>18000</v>
+      </c>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="41">
+        <v>10000</v>
+      </c>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="41">
+        <v>0</v>
+      </c>
+      <c r="C93" s="41">
+        <v>7000</v>
+      </c>
+      <c r="D93" s="41"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="41">
+        <v>5000</v>
+      </c>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="43">
+        <f>SUM(B89:B94)</f>
+        <v>75000</v>
+      </c>
+      <c r="C95" s="43">
+        <f>SUM(C89:C94)</f>
+        <v>7000</v>
+      </c>
+      <c r="D95" s="43">
+        <f t="shared" si="8"/>
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="41">
+        <v>10000</v>
+      </c>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="41">
+        <v>5000</v>
+      </c>
+      <c r="C97" s="41">
+        <v>0</v>
+      </c>
+      <c r="D97" s="41"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="43">
+        <f>SUM(B96:B97)</f>
+        <v>15000</v>
+      </c>
+      <c r="C98" s="43">
+        <f>SUM(C96:C97)</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="43">
+        <f t="shared" si="8"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="41">
+        <v>0</v>
+      </c>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="41">
+        <v>0</v>
+      </c>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="43">
+        <f>SUM(B99:B100)</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" s="41">
+        <v>15000</v>
+      </c>
+      <c r="C102" s="41">
+        <v>0</v>
+      </c>
+      <c r="D102" s="41"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" s="41">
+        <v>0</v>
+      </c>
+      <c r="C103" s="41">
+        <v>15000</v>
+      </c>
+      <c r="D103" s="41"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="41">
+        <v>0</v>
+      </c>
+      <c r="C104" s="41">
+        <v>15000</v>
+      </c>
+      <c r="D104" s="41"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="41">
+        <v>0</v>
+      </c>
+      <c r="C105" s="41">
+        <v>5000</v>
+      </c>
+      <c r="D105" s="41"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="43">
+        <f>SUM(B102:B105)</f>
+        <v>15000</v>
+      </c>
+      <c r="C106" s="43">
+        <f>SUM(C102:C105)</f>
+        <v>35000</v>
+      </c>
+      <c r="D106" s="43">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="41"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="45">
+        <f>B80+B88+B95+B98+B101+B106</f>
+        <v>330000</v>
+      </c>
+      <c r="C108" s="45">
+        <f>C80+C88+C95+C98+C101+C106</f>
+        <v>50000</v>
+      </c>
+      <c r="D108" s="45">
+        <f t="shared" si="8"/>
+        <v>380000</v>
       </c>
     </row>
   </sheetData>
